--- a/Assets/Data/Excel/ExcelTest.xlsx
+++ b/Assets/Data/Excel/ExcelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\Dission3\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD658E1-43A9-485D-8305-74F73E0D2FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E11CC4-A8CC-47CA-906A-9B1628C13B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>엑셀 테스트 중입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>다들 파이팅!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 말입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 더!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,15 +753,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C109EC69-2F8B-4D90-8B80-4A2E5D316B61}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -764,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -778,7 +786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -795,17 +803,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -818,8 +826,14 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
